--- a/Game/Map/VarticalMap.xlsx
+++ b/Game/Map/VarticalMap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waru5\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D080CDA7-52F6-4CCC-A16F-1A042BF10EA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="7200" yWindow="1005" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,7 +79,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="23">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -135,6 +136,41 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -208,305 +244,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -785,11 +522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -798,7 +535,7 @@
     <col min="60" max="70" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -829,8 +566,14 @@
       <c r="J1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -861,40 +604,52 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -925,8 +680,14 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -957,8 +718,14 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -989,8 +756,14 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1021,8 +794,14 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1053,8 +832,14 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1068,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1077,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1085,8 +870,14 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1097,28 +888,34 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>7</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -1126,11 +923,11 @@
         <v>0</v>
       </c>
       <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
@@ -1141,25 +938,31 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>7</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
       <c r="J11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
@@ -1176,13 +979,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
         <v>7</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -1213,8 +1022,14 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1245,8 +1060,14 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1277,8 +1098,14 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1309,8 +1136,14 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1341,8 +1174,14 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1373,13 +1212,19 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>4</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1388,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1397,16 +1242,22 @@
         <v>4</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K19" s="2">
+        <v>5</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1437,8 +1288,14 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1469,8 +1326,14 @@
       <c r="J21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1501,8 +1364,14 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1533,8 +1402,14 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1565,28 +1440,34 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5</v>
-      </c>
       <c r="F25" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H25" s="1">
         <v>2</v>
@@ -1595,10 +1476,16 @@
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K25" s="2">
+        <v>2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1629,8 +1516,14 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1661,8 +1554,14 @@
       <c r="J27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1693,8 +1592,14 @@
       <c r="J28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1725,8 +1630,14 @@
       <c r="J29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1734,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1743,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1752,45 +1663,57 @@
         <v>3</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K30" s="2">
+        <v>3</v>
+      </c>
+      <c r="L30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1821,8 +1744,14 @@
       <c r="J32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1853,8 +1782,14 @@
       <c r="J33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1885,8 +1820,14 @@
       <c r="J34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1894,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -1915,10 +1856,16 @@
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -1926,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -1944,13 +1891,19 @@
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -1958,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
         <v>7</v>
       </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -1973,16 +1926,22 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1">
         <v>7</v>
       </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
       <c r="J37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1993,28 +1952,34 @@
         <v>0</v>
       </c>
       <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
         <v>7</v>
       </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G38" s="1">
+        <v>5</v>
+      </c>
+      <c r="H38" s="1">
         <v>7</v>
       </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
       <c r="I38" s="1">
         <v>0</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -2028,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
         <v>7</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -2045,8 +2010,14 @@
       <c r="J39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -2077,8 +2048,14 @@
       <c r="J40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -2109,8 +2086,14 @@
       <c r="J41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -2141,8 +2124,14 @@
       <c r="J42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -2173,8 +2162,14 @@
       <c r="J43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -2205,16 +2200,22 @@
       <c r="J44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>0</v>
       </c>
       <c r="B45" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -2232,18 +2233,24 @@
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>0</v>
       </c>
       <c r="B46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -2264,13 +2271,19 @@
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -2301,8 +2314,14 @@
       <c r="J47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -2333,8 +2352,14 @@
       <c r="J48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -2342,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -2354,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H49" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -2365,8 +2390,14 @@
       <c r="J49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -2383,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2397,8 +2428,14 @@
       <c r="J50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -2412,43 +2449,49 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>5</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
         <v>2</v>
       </c>
-      <c r="G51" s="1">
-        <v>5</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>5</v>
-      </c>
       <c r="G52" s="1">
         <v>0</v>
       </c>
@@ -2461,13 +2504,19 @@
       <c r="J52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>0</v>
       </c>
       <c r="B53" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -2491,10 +2540,16 @@
         <v>0</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -2525,8 +2580,14 @@
       <c r="J54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -2540,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -2549,16 +2610,22 @@
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I55" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K55" s="2">
+        <v>5</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -2572,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -2581,16 +2648,22 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
         <v>4</v>
       </c>
-      <c r="J56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -2621,8 +2694,14 @@
       <c r="J57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -2653,8 +2732,14 @@
       <c r="J58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -2685,8 +2770,14 @@
       <c r="J59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -2700,164 +2791,194 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1">
         <v>3</v>
       </c>
-      <c r="F60" s="1">
-        <v>0</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="1">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>5</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
       <c r="H61" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K62" s="2">
+        <v>5</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>0</v>
       </c>
       <c r="B63" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>5</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>5</v>
+      </c>
+      <c r="H64" s="1">
         <v>3</v>
       </c>
-      <c r="J63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="1">
-        <v>0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0</v>
-      </c>
       <c r="I64" s="1">
         <v>5</v>
       </c>
       <c r="J64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K64" s="2">
+        <v>5</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>0</v>
       </c>
       <c r="B65" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -2869,16 +2990,22 @@
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="K65" s="2">
+        <v>3</v>
+      </c>
+      <c r="L65" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -2886,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -2895,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2909,13 +3036,19 @@
       <c r="J66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K66" s="2">
+        <v>5</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>0</v>
       </c>
       <c r="B67" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
@@ -2924,13 +3057,13 @@
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -2941,13 +3074,19 @@
       <c r="J67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>0</v>
       </c>
       <c r="B68" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
@@ -2959,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2973,8 +3112,14 @@
       <c r="J68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -3005,8 +3150,14 @@
       <c r="J69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -3035,87 +3186,93 @@
         <v>0</v>
       </c>
       <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="K2:BR10 A1:BR1 A2:J70">
-    <cfRule type="cellIs" dxfId="53" priority="23" operator="equal">
+  <conditionalFormatting sqref="M2:BR10 A1:BR1 A2:L70">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:BR10 A1:BR1 A2:J70">
-    <cfRule type="cellIs" dxfId="44" priority="15" operator="equal">
+  <conditionalFormatting sqref="M2:BR10 A1:BR1 A2:L70">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:BR10">
-    <cfRule type="cellIs" dxfId="58" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:BS10 A1:BS1 A2:J70">
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
+  <conditionalFormatting sqref="M2:BS10 A1:BS1 A2:L70">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:J70">
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
